--- a/pca.xlsx
+++ b/pca.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主成份分析" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>模型</t>
   </si>
@@ -117,6 +117,14 @@
   </si>
   <si>
     <t>回到郭飞的博客</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到统计学目录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到统计学目录</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -183,11 +191,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -889,7 +897,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -924,7 +932,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1133,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1202,24 +1210,30 @@
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B19" r:id="rId1"/>
+    <hyperlink ref="B20" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" altText="" r:id="rId5">
+        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId5">
+          <objectPr defaultSize="0" altText="" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -1238,13 +1252,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId4"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1025" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1026" r:id="rId6">
-          <objectPr defaultSize="0" altText="" r:id="rId7">
+        <oleObject progId="Equation.KSEE3" shapeId="1026" r:id="rId7">
+          <objectPr defaultSize="0" altText="" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -1263,13 +1277,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1026" r:id="rId6"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1026" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId8">
-          <objectPr defaultSize="0" altText="" r:id="rId9">
+        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId9">
+          <objectPr defaultSize="0" altText="" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -1288,13 +1302,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId8"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1027" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId10">
-          <objectPr defaultSize="0" altText="" r:id="rId11">
+        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId11">
+          <objectPr defaultSize="0" altText="" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1313,13 +1327,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId10"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1028" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId12">
-          <objectPr defaultSize="0" altText="" r:id="rId13">
+        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId13">
+          <objectPr defaultSize="0" altText="" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -1338,7 +1352,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId12"/>
+        <oleObject progId="Equation.KSEE3" shapeId="1029" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -1347,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1387,19 +1401,19 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
       <c r="C9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
@@ -1407,27 +1421,27 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
@@ -1435,8 +1449,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -1465,6 +1479,16 @@
       </c>
       <c r="C19" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1475,15 +1499,19 @@
     <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B21" r:id="rId1"/>
+    <hyperlink ref="B20" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId3">
-          <objectPr defaultSize="0" altText="" r:id="rId4">
+        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId5">
+          <objectPr defaultSize="0" altText="" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1502,13 +1530,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId3"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId5">
-          <objectPr defaultSize="0" altText="" r:id="rId6">
+        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId7">
+          <objectPr defaultSize="0" altText="" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1527,13 +1555,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId5"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId7">
-          <objectPr defaultSize="0" altText="" r:id="rId8">
+        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId9">
+          <objectPr defaultSize="0" altText="" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1552,13 +1580,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId7"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId9">
-          <objectPr defaultSize="0" altText="" r:id="rId10">
+        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId11">
+          <objectPr defaultSize="0" altText="" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1577,13 +1605,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId9"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId11">
-          <objectPr defaultSize="0" altText="" r:id="rId12">
+        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId13">
+          <objectPr defaultSize="0" altText="" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1602,7 +1630,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId11"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -1611,32 +1639,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="138" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:1" ht="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="3073" r:id="rId3">
-          <objectPr defaultSize="0" altText="" r:id="rId4">
+        <oleObject progId="Equation.KSEE3" shapeId="3073" r:id="rId5">
+          <objectPr defaultSize="0" altText="" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1655,13 +1697,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="3073" r:id="rId3"/>
+        <oleObject progId="Equation.KSEE3" shapeId="3073" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="3074" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="Equation.KSEE3" shapeId="3074" r:id="rId7">
+          <objectPr defaultSize="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1680,7 +1722,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="3074" r:id="rId5"/>
+        <oleObject progId="Equation.KSEE3" shapeId="3074" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
